--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>484315.147142836</v>
+        <v>482534.8984581573</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23771180.23730299</v>
+        <v>23771180.237303</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6859972.769542504</v>
+        <v>6859972.769542506</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>92.27519311643901</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>324.8729715994713</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.92512596900084</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>89.3265671349328</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>287.0790000802538</v>
+        <v>398.380437997808</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>51.39502341313856</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0.1136494536141777</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1144,7 +1144,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>299.5279315896951</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>17.76497456510852</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>31.54792533951343</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T11" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5543216187114</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>156.6855189695491</v>
       </c>
     </row>
     <row r="12">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S13" t="n">
         <v>150.2461877512991</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>398.1535441509649</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>316.6756107165901</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S16" t="n">
         <v>150.2461877512991</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,10 +1855,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>32.82663269591244</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>387.6716457371226</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S19" t="n">
         <v>150.2461877512991</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>79.16438640117354</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>46.8684189521251</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>276.5406404993261</v>
@@ -2143,7 +2143,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S22" t="n">
         <v>150.2461877512991</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S25" t="n">
         <v>150.2461877512991</v>
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>396.4368775949459</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H26" t="n">
         <v>276.5406404993261</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S28" t="n">
         <v>150.2461877512991</v>
@@ -2851,7 +2851,7 @@
         <v>256.5543216187114</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S31" t="n">
         <v>150.2461877512991</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>61.23615160042929</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T32" t="n">
         <v>213.7211697444214</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S34" t="n">
         <v>150.2461877512991</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>314.5400497250101</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>5.667716701764634</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S37" t="n">
         <v>150.2461877512991</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.107125588612844</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3565,13 +3565,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>356.3561692025751</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S40" t="n">
         <v>150.2461877512991</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,10 +3748,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>203.1418903422666</v>
       </c>
       <c r="G41" t="n">
         <v>396.4368775949458</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>5.667716701764634</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S43" t="n">
         <v>150.2461877512991</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>25.11353164801341</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.4368775949458</v>
+        <v>216.6021831525304</v>
       </c>
       <c r="H44" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>61.23615160042885</v>
       </c>
       <c r="T44" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.103962911529379</v>
+        <v>2.103962911529383</v>
       </c>
       <c r="S46" t="n">
         <v>150.2461877512991</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1654.761434047123</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>1620.659365270951</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>1192.077691008219</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>763.4960167454872</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1074.529126782698</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>655.3866633620088</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>247.1005396616622</v>
       </c>
     </row>
     <row r="3">
@@ -4394,37 +4394,37 @@
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>33.94366860160836</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>60.00734176206596</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0602407069692</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0602407069692</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>480.0602407069692</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.0459114002024</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="C4" t="n">
-        <v>95.48419988342738</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4494,16 +4494,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X4" t="n">
-        <v>459.8645301191896</v>
+        <v>769.5396610983935</v>
       </c>
       <c r="Y4" t="n">
-        <v>459.8645301191896</v>
+        <v>542.1199904125018</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>949.4529008264926</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>915.3508320503199</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,16 +4570,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W5" t="n">
-        <v>1407.204642120565</v>
+        <v>991.0598463112242</v>
       </c>
       <c r="X5" t="n">
-        <v>988.0621786998757</v>
+        <v>975.9577869309389</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.7760549995292</v>
+        <v>971.7120672709964</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4646,25 +4646,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0602407069692</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0602407069692</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.0794944074844</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C7" t="n">
-        <v>174.5177828907093</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>1138.201517537139</v>
       </c>
       <c r="X7" t="n">
-        <v>347.0794944074844</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.0794944074844</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>952.4132834144444</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>523.8316091517128</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,22 +4807,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4843,13 +4843,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1378.712853899352</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4992,22 +4992,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>350.5528969494776</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>526.0876146081564</v>
+        <v>930.130808181678</v>
       </c>
       <c r="C11" t="n">
-        <v>526.0876146081564</v>
+        <v>930.130808181678</v>
       </c>
       <c r="D11" t="n">
-        <v>526.0876146081564</v>
+        <v>494.2210233561226</v>
       </c>
       <c r="E11" t="n">
-        <v>92.31286976645157</v>
+        <v>60.4462785144178</v>
       </c>
       <c r="F11" t="n">
-        <v>92.31286976645157</v>
+        <v>60.4462785144178</v>
       </c>
       <c r="G11" t="n">
         <v>60.4462785144178</v>
@@ -5068,25 +5068,25 @@
         <v>3022.31392572089</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.31392572089</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.433956282081</v>
+        <v>2960.459227134598</v>
       </c>
       <c r="U11" t="n">
-        <v>2547.28817686924</v>
+        <v>2701.313447721758</v>
       </c>
       <c r="V11" t="n">
-        <v>2184.671226803067</v>
+        <v>2338.696497655585</v>
       </c>
       <c r="W11" t="n">
-        <v>1779.8157722141</v>
+        <v>1933.841043066618</v>
       </c>
       <c r="X11" t="n">
-        <v>1360.673308793411</v>
+        <v>1514.698579645928</v>
       </c>
       <c r="Y11" t="n">
-        <v>952.3871850930642</v>
+        <v>1356.430378666586</v>
       </c>
     </row>
     <row r="12">
@@ -5120,16 +5120,16 @@
         <v>103.7802883505629</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1714122143825</v>
+        <v>475.7297371805948</v>
       </c>
       <c r="K12" t="n">
-        <v>232.1703912448012</v>
+        <v>912.6806969584999</v>
       </c>
       <c r="L12" t="n">
-        <v>341.0835144460634</v>
+        <v>1021.593820159762</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1279444720022</v>
+        <v>1148.69029783549</v>
       </c>
       <c r="N12" t="n">
         <v>1279.150641087922</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1122.357189429986</v>
+        <v>1122.357189429985</v>
       </c>
       <c r="C13" t="n">
-        <v>949.7954779132104</v>
+        <v>949.7954779132101</v>
       </c>
       <c r="D13" t="n">
-        <v>783.9174851147332</v>
+        <v>783.9174851147327</v>
       </c>
       <c r="E13" t="n">
-        <v>614.1594813654704</v>
+        <v>614.1594813654697</v>
       </c>
       <c r="F13" t="n">
-        <v>437.4524273272266</v>
+        <v>437.4524273272259</v>
       </c>
       <c r="G13" t="n">
-        <v>272.2902236602864</v>
+        <v>272.2902236602858</v>
       </c>
       <c r="H13" t="n">
         <v>136.2028833367836</v>
@@ -5199,16 +5199,16 @@
         <v>60.4462785144178</v>
       </c>
       <c r="J13" t="n">
-        <v>176.7576318061685</v>
+        <v>105.064754971229</v>
       </c>
       <c r="K13" t="n">
-        <v>500.3743503176201</v>
+        <v>428.6814734826806</v>
       </c>
       <c r="L13" t="n">
-        <v>909.4131117827178</v>
+        <v>909.4131117827174</v>
       </c>
       <c r="M13" t="n">
-        <v>1434.817405029583</v>
+        <v>1434.817405029582</v>
       </c>
       <c r="N13" t="n">
         <v>1941.429193860728</v>
@@ -5232,7 +5232,7 @@
         <v>2624.378742902139</v>
       </c>
       <c r="U13" t="n">
-        <v>2345.96914604473</v>
+        <v>2345.969146044729</v>
       </c>
       <c r="V13" t="n">
         <v>2059.01363791516</v>
@@ -5244,7 +5244,7 @@
         <v>1541.595478834864</v>
       </c>
       <c r="Y13" t="n">
-        <v>1314.175808148973</v>
+        <v>1314.175808148972</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1796.140710589047</v>
+        <v>1932.013121234176</v>
       </c>
       <c r="C14" t="n">
-        <v>1357.99823777247</v>
+        <v>1493.8706484176</v>
       </c>
       <c r="D14" t="n">
-        <v>922.0884529469149</v>
+        <v>1173.996294158418</v>
       </c>
       <c r="E14" t="n">
-        <v>488.31370810521</v>
+        <v>740.2215493167128</v>
       </c>
       <c r="F14" t="n">
-        <v>60.4462785144178</v>
+        <v>740.2215493167128</v>
       </c>
       <c r="G14" t="n">
-        <v>60.4462785144178</v>
+        <v>339.7802588167674</v>
       </c>
       <c r="H14" t="n">
         <v>60.4462785144178</v>
@@ -5281,19 +5281,19 @@
         <v>611.0052852544601</v>
       </c>
       <c r="K14" t="n">
-        <v>1359.02798187038</v>
+        <v>730.2595276380766</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.857464137939</v>
+        <v>878.2049604964046</v>
       </c>
       <c r="M14" t="n">
-        <v>1686.475264225926</v>
+        <v>1042.822760584391</v>
       </c>
       <c r="N14" t="n">
-        <v>1853.756752421947</v>
+        <v>1210.104248780412</v>
       </c>
       <c r="O14" t="n">
-        <v>2011.715918180917</v>
+        <v>1398.507715025819</v>
       </c>
       <c r="P14" t="n">
         <v>2146.530411641739</v>
@@ -5311,19 +5311,19 @@
         <v>3022.31392572089</v>
       </c>
       <c r="U14" t="n">
-        <v>3022.31392572089</v>
+        <v>2763.16814630805</v>
       </c>
       <c r="V14" t="n">
-        <v>3022.31392572089</v>
+        <v>2763.16814630805</v>
       </c>
       <c r="W14" t="n">
-        <v>2617.458471131923</v>
+        <v>2358.312691719084</v>
       </c>
       <c r="X14" t="n">
-        <v>2198.316007711234</v>
+        <v>2358.312691719084</v>
       </c>
       <c r="Y14" t="n">
-        <v>2198.316007711234</v>
+        <v>2358.312691719084</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>475.7297371805948</v>
       </c>
       <c r="K15" t="n">
-        <v>556.7287162110134</v>
+        <v>912.6806969584999</v>
       </c>
       <c r="L15" t="n">
-        <v>665.6418394122758</v>
+        <v>1021.593820159762</v>
       </c>
       <c r="M15" t="n">
-        <v>792.7383170880039</v>
+        <v>1148.69029783549</v>
       </c>
       <c r="N15" t="n">
-        <v>923.198660340436</v>
+        <v>1279.150641087922</v>
       </c>
       <c r="O15" t="n">
-        <v>1042.544386919547</v>
+        <v>1398.496367667033</v>
       </c>
       <c r="P15" t="n">
-        <v>1138.329854204398</v>
+        <v>1494.281834951884</v>
       </c>
       <c r="Q15" t="n">
         <v>1558.311883182357</v>
@@ -5415,10 +5415,10 @@
         <v>1122.357189429985</v>
       </c>
       <c r="C16" t="n">
-        <v>949.7954779132098</v>
+        <v>949.7954779132101</v>
       </c>
       <c r="D16" t="n">
-        <v>783.9174851147325</v>
+        <v>783.9174851147327</v>
       </c>
       <c r="E16" t="n">
         <v>614.1594813654697</v>
@@ -5427,10 +5427,10 @@
         <v>437.4524273272259</v>
       </c>
       <c r="G16" t="n">
-        <v>272.2902236602864</v>
+        <v>272.2902236602859</v>
       </c>
       <c r="H16" t="n">
-        <v>136.2028833367836</v>
+        <v>136.2028833367831</v>
       </c>
       <c r="I16" t="n">
         <v>60.4462785144178</v>
@@ -5442,19 +5442,19 @@
         <v>500.3743503176201</v>
       </c>
       <c r="L16" t="n">
-        <v>909.4131117827174</v>
+        <v>981.1059886176569</v>
       </c>
       <c r="M16" t="n">
-        <v>1434.817405029582</v>
+        <v>1506.510281864522</v>
       </c>
       <c r="N16" t="n">
-        <v>1941.429193860728</v>
+        <v>2013.122070695668</v>
       </c>
       <c r="O16" t="n">
-        <v>2420.538841188546</v>
+        <v>2492.231718023486</v>
       </c>
       <c r="P16" t="n">
-        <v>2818.907264381264</v>
+        <v>2890.600141216204</v>
       </c>
       <c r="Q16" t="n">
         <v>3022.31392572089</v>
@@ -5475,7 +5475,7 @@
         <v>2059.01363791516</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.987233501451</v>
+        <v>1786.987233501452</v>
       </c>
       <c r="X16" t="n">
         <v>1541.595478834864</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1796.140710589047</v>
+        <v>1363.730313525979</v>
       </c>
       <c r="C17" t="n">
-        <v>1357.99823777247</v>
+        <v>1363.730313525979</v>
       </c>
       <c r="D17" t="n">
-        <v>922.0884529469149</v>
+        <v>927.8205287004239</v>
       </c>
       <c r="E17" t="n">
-        <v>488.31370810521</v>
+        <v>494.0457838587191</v>
       </c>
       <c r="F17" t="n">
-        <v>60.4462785144178</v>
+        <v>460.8875690143631</v>
       </c>
       <c r="G17" t="n">
         <v>60.4462785144178</v>
@@ -5518,19 +5518,19 @@
         <v>611.0052852544601</v>
       </c>
       <c r="K17" t="n">
-        <v>730.2595276380766</v>
+        <v>1359.02798187038</v>
       </c>
       <c r="L17" t="n">
-        <v>878.2049604964046</v>
+        <v>1521.857464137939</v>
       </c>
       <c r="M17" t="n">
-        <v>1042.822760584391</v>
+        <v>1686.475264225926</v>
       </c>
       <c r="N17" t="n">
-        <v>1210.104248780412</v>
+        <v>1853.756752421947</v>
       </c>
       <c r="O17" t="n">
-        <v>1398.507715025819</v>
+        <v>2011.715918180917</v>
       </c>
       <c r="P17" t="n">
         <v>2146.530411641739</v>
@@ -5554,13 +5554,13 @@
         <v>3022.31392572089</v>
       </c>
       <c r="W17" t="n">
-        <v>3022.31392572089</v>
+        <v>2617.458471131923</v>
       </c>
       <c r="X17" t="n">
-        <v>2630.726404774301</v>
+        <v>2198.316007711234</v>
       </c>
       <c r="Y17" t="n">
-        <v>2222.440281073955</v>
+        <v>1790.029884010887</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>475.7297371805948</v>
       </c>
       <c r="K18" t="n">
-        <v>556.7287162110134</v>
+        <v>912.6806969584999</v>
       </c>
       <c r="L18" t="n">
-        <v>665.6418394122758</v>
+        <v>1021.593820159762</v>
       </c>
       <c r="M18" t="n">
-        <v>792.7383170880039</v>
+        <v>1148.69029783549</v>
       </c>
       <c r="N18" t="n">
-        <v>923.198660340436</v>
+        <v>1279.150641087922</v>
       </c>
       <c r="O18" t="n">
-        <v>1042.544386919547</v>
+        <v>1398.496367667033</v>
       </c>
       <c r="P18" t="n">
-        <v>1138.329854204398</v>
+        <v>1494.281834951884</v>
       </c>
       <c r="Q18" t="n">
         <v>1558.311883182357</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2122.816528216776</v>
+        <v>1291.661503142901</v>
       </c>
       <c r="C20" t="n">
-        <v>1684.674055400199</v>
+        <v>853.5190303263244</v>
       </c>
       <c r="D20" t="n">
-        <v>1248.764270574643</v>
+        <v>773.5550036584723</v>
       </c>
       <c r="E20" t="n">
-        <v>814.9895257329385</v>
+        <v>339.7802588167674</v>
       </c>
       <c r="F20" t="n">
-        <v>387.1220961421463</v>
+        <v>339.7802588167674</v>
       </c>
       <c r="G20" t="n">
         <v>339.7802588167674</v>
@@ -5752,22 +5752,22 @@
         <v>96.18097226372217</v>
       </c>
       <c r="J20" t="n">
-        <v>175.7505978015421</v>
+        <v>611.0052852544601</v>
       </c>
       <c r="K20" t="n">
-        <v>923.7732944174624</v>
+        <v>1359.02798187038</v>
       </c>
       <c r="L20" t="n">
-        <v>1071.71872727579</v>
+        <v>1506.973414728708</v>
       </c>
       <c r="M20" t="n">
-        <v>1236.336527363777</v>
+        <v>1671.591214816695</v>
       </c>
       <c r="N20" t="n">
-        <v>1403.618015559798</v>
+        <v>1838.872703012716</v>
       </c>
       <c r="O20" t="n">
-        <v>1561.577181318768</v>
+        <v>2011.715918180917</v>
       </c>
       <c r="P20" t="n">
         <v>2146.530411641739</v>
@@ -5791,13 +5791,13 @@
         <v>2122.816528216776</v>
       </c>
       <c r="W20" t="n">
-        <v>2122.816528216776</v>
+        <v>1717.961073627809</v>
       </c>
       <c r="X20" t="n">
-        <v>2122.816528216776</v>
+        <v>1717.961073627809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2122.816528216776</v>
+        <v>1717.961073627809</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>103.7802883505629</v>
       </c>
       <c r="J21" t="n">
-        <v>290.9427792960058</v>
+        <v>475.7297371805948</v>
       </c>
       <c r="K21" t="n">
-        <v>371.9417583264244</v>
+        <v>912.6806969584999</v>
       </c>
       <c r="L21" t="n">
-        <v>480.8548815276866</v>
+        <v>1021.593820159762</v>
       </c>
       <c r="M21" t="n">
-        <v>607.9513592034148</v>
+        <v>1148.69029783549</v>
       </c>
       <c r="N21" t="n">
-        <v>738.4117024558469</v>
+        <v>1279.150641087922</v>
       </c>
       <c r="O21" t="n">
-        <v>857.7574290349577</v>
+        <v>1398.496367667033</v>
       </c>
       <c r="P21" t="n">
-        <v>953.5428963198088</v>
+        <v>1494.281834951884</v>
       </c>
       <c r="Q21" t="n">
         <v>1558.311883182357</v>
@@ -5989,34 +5989,34 @@
         <v>137.235728699834</v>
       </c>
       <c r="J23" t="n">
-        <v>216.8053542376539</v>
+        <v>652.0600416905719</v>
       </c>
       <c r="K23" t="n">
-        <v>336.0595966212704</v>
+        <v>1605.664576032366</v>
       </c>
       <c r="L23" t="n">
-        <v>1129.817143343274</v>
+        <v>1753.610008890694</v>
       </c>
       <c r="M23" t="n">
-        <v>2385.892450856078</v>
+        <v>1918.227808978681</v>
       </c>
       <c r="N23" t="n">
-        <v>3641.967758368881</v>
+        <v>2098.005032823834</v>
       </c>
       <c r="O23" t="n">
-        <v>4780.106590698158</v>
+        <v>3236.14386515311</v>
       </c>
       <c r="P23" t="n">
-        <v>4914.921084158979</v>
+        <v>4199.268233447328</v>
       </c>
       <c r="Q23" t="n">
-        <v>5016.161154260716</v>
+        <v>4847.00708950766</v>
       </c>
       <c r="R23" t="n">
         <v>5075.05174752648</v>
       </c>
       <c r="S23" t="n">
-        <v>5013.197048940188</v>
+        <v>5013.197048940187</v>
       </c>
       <c r="T23" t="n">
         <v>4797.317079501378</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3929.586650834179</v>
+        <v>602.218128151849</v>
       </c>
       <c r="C24" t="n">
-        <v>3823.130189670821</v>
+        <v>495.7616669884912</v>
       </c>
       <c r="D24" t="n">
-        <v>3728.039900817374</v>
+        <v>400.6713781350445</v>
       </c>
       <c r="E24" t="n">
-        <v>3633.919486144328</v>
+        <v>306.5509634619982</v>
       </c>
       <c r="F24" t="n">
-        <v>3550.53564776049</v>
+        <v>223.1671250781598</v>
       </c>
       <c r="G24" t="n">
-        <v>3465.662352515609</v>
+        <v>138.2938298332795</v>
       </c>
       <c r="H24" t="n">
-        <v>3428.869557632859</v>
+        <v>101.5010349505296</v>
       </c>
       <c r="I24" t="n">
-        <v>3472.203567469004</v>
+        <v>144.8350447866747</v>
       </c>
       <c r="J24" t="n">
-        <v>3844.153016299036</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K24" t="n">
-        <v>4281.103976076942</v>
+        <v>597.7834726471252</v>
       </c>
       <c r="L24" t="n">
-        <v>4390.017099278204</v>
+        <v>706.6965958483876</v>
       </c>
       <c r="M24" t="n">
-        <v>4517.113576953932</v>
+        <v>833.7930735241156</v>
       </c>
       <c r="N24" t="n">
-        <v>4647.573920206364</v>
+        <v>964.2534167765477</v>
       </c>
       <c r="O24" t="n">
-        <v>4766.919646785474</v>
+        <v>1083.599143355658</v>
       </c>
       <c r="P24" t="n">
-        <v>4862.705114070325</v>
+        <v>1179.38461064051</v>
       </c>
       <c r="Q24" t="n">
-        <v>4926.735162300797</v>
+        <v>1599.366639618469</v>
       </c>
       <c r="R24" t="n">
-        <v>5075.05174752648</v>
+        <v>1747.68322484415</v>
       </c>
       <c r="S24" t="n">
-        <v>5021.102668135578</v>
+        <v>1693.734145453248</v>
       </c>
       <c r="T24" t="n">
-        <v>4892.986915410618</v>
+        <v>1565.618392728288</v>
       </c>
       <c r="U24" t="n">
-        <v>4716.684039100648</v>
+        <v>1389.315516418318</v>
       </c>
       <c r="V24" t="n">
-        <v>4517.566521162647</v>
+        <v>1190.197998480317</v>
       </c>
       <c r="W24" t="n">
-        <v>4332.243766895841</v>
+        <v>1004.875244213511</v>
       </c>
       <c r="X24" t="n">
-        <v>4177.376331134721</v>
+        <v>850.0078084523914</v>
       </c>
       <c r="Y24" t="n">
-        <v>4050.890551913942</v>
+        <v>723.5220292316121</v>
       </c>
     </row>
     <row r="25">
@@ -6147,25 +6147,25 @@
         <v>101.5010349505296</v>
       </c>
       <c r="J25" t="n">
-        <v>217.8123882422803</v>
+        <v>146.1195114073409</v>
       </c>
       <c r="K25" t="n">
-        <v>541.4291067537318</v>
+        <v>469.7362299187925</v>
       </c>
       <c r="L25" t="n">
-        <v>1022.160745053769</v>
+        <v>950.4678682188293</v>
       </c>
       <c r="M25" t="n">
-        <v>1547.565038300634</v>
+        <v>1475.872161465694</v>
       </c>
       <c r="N25" t="n">
-        <v>2054.17682713178</v>
+        <v>1982.48395029684</v>
       </c>
       <c r="O25" t="n">
-        <v>2533.286474459598</v>
+        <v>2461.593597624658</v>
       </c>
       <c r="P25" t="n">
-        <v>2931.654897652316</v>
+        <v>2859.962020817376</v>
       </c>
       <c r="Q25" t="n">
         <v>3063.368682157002</v>
@@ -6226,22 +6226,22 @@
         <v>137.235728699834</v>
       </c>
       <c r="J26" t="n">
-        <v>216.8053542376539</v>
+        <v>652.0600416905719</v>
       </c>
       <c r="K26" t="n">
-        <v>1170.409888579448</v>
+        <v>1605.664576032366</v>
       </c>
       <c r="L26" t="n">
-        <v>2393.415287690636</v>
+        <v>1766.105744539826</v>
       </c>
       <c r="M26" t="n">
-        <v>2558.033087778622</v>
+        <v>1930.723544627813</v>
       </c>
       <c r="N26" t="n">
-        <v>2725.314575974644</v>
+        <v>2098.005032823834</v>
       </c>
       <c r="O26" t="n">
-        <v>3863.45340830392</v>
+        <v>3236.14386515311</v>
       </c>
       <c r="P26" t="n">
         <v>4199.268233447328</v>
@@ -6308,22 +6308,22 @@
         <v>516.7844936167066</v>
       </c>
       <c r="K27" t="n">
-        <v>953.7354533946116</v>
+        <v>597.7834726471252</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.648576595874</v>
+        <v>706.6965958483876</v>
       </c>
       <c r="M27" t="n">
-        <v>1189.745054271602</v>
+        <v>833.7930735241156</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.205397524034</v>
+        <v>964.2534167765477</v>
       </c>
       <c r="O27" t="n">
-        <v>1439.551124103145</v>
+        <v>1083.599143355658</v>
       </c>
       <c r="P27" t="n">
-        <v>1535.336591387996</v>
+        <v>1179.38461064051</v>
       </c>
       <c r="Q27" t="n">
         <v>1599.366639618469</v>
@@ -6384,25 +6384,25 @@
         <v>101.5010349505296</v>
       </c>
       <c r="J28" t="n">
-        <v>146.1195114073409</v>
+        <v>217.8123882422803</v>
       </c>
       <c r="K28" t="n">
-        <v>469.7362299187925</v>
+        <v>541.4291067537318</v>
       </c>
       <c r="L28" t="n">
-        <v>950.4678682188293</v>
+        <v>1022.160745053769</v>
       </c>
       <c r="M28" t="n">
-        <v>1475.872161465694</v>
+        <v>1547.565038300634</v>
       </c>
       <c r="N28" t="n">
-        <v>1982.48395029684</v>
+        <v>2054.17682713178</v>
       </c>
       <c r="O28" t="n">
-        <v>2461.593597624658</v>
+        <v>2533.286474459598</v>
       </c>
       <c r="P28" t="n">
-        <v>2859.962020817376</v>
+        <v>2931.654897652316</v>
       </c>
       <c r="Q28" t="n">
         <v>3063.368682157002</v>
@@ -6454,7 +6454,7 @@
         <v>781.2763057528246</v>
       </c>
       <c r="G29" t="n">
-        <v>380.8350152528796</v>
+        <v>380.8350152528792</v>
       </c>
       <c r="H29" t="n">
         <v>101.5010349505296</v>
@@ -6490,7 +6490,7 @@
         <v>5075.05174752648</v>
       </c>
       <c r="S29" t="n">
-        <v>5013.197048940188</v>
+        <v>5013.197048940187</v>
       </c>
       <c r="T29" t="n">
         <v>4797.317079501378</v>
@@ -6542,25 +6542,25 @@
         <v>144.8350447866747</v>
       </c>
       <c r="J30" t="n">
-        <v>331.9975357321174</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K30" t="n">
-        <v>412.996514762536</v>
+        <v>597.7834726471252</v>
       </c>
       <c r="L30" t="n">
-        <v>521.9096379637983</v>
+        <v>706.6965958483876</v>
       </c>
       <c r="M30" t="n">
-        <v>649.0061156395265</v>
+        <v>833.7930735241156</v>
       </c>
       <c r="N30" t="n">
-        <v>779.4664588919586</v>
+        <v>964.2534167765477</v>
       </c>
       <c r="O30" t="n">
-        <v>898.8121854710693</v>
+        <v>1083.599143355658</v>
       </c>
       <c r="P30" t="n">
-        <v>994.5976527559205</v>
+        <v>1179.38461064051</v>
       </c>
       <c r="Q30" t="n">
         <v>1599.366639618469</v>
@@ -6624,22 +6624,22 @@
         <v>217.8123882422803</v>
       </c>
       <c r="K31" t="n">
-        <v>469.7362299187925</v>
+        <v>541.4291067537318</v>
       </c>
       <c r="L31" t="n">
-        <v>950.4678682188293</v>
+        <v>1022.160745053769</v>
       </c>
       <c r="M31" t="n">
-        <v>1475.872161465694</v>
+        <v>1547.565038300634</v>
       </c>
       <c r="N31" t="n">
-        <v>1982.48395029684</v>
+        <v>2054.17682713178</v>
       </c>
       <c r="O31" t="n">
-        <v>2461.593597624658</v>
+        <v>2533.286474459598</v>
       </c>
       <c r="P31" t="n">
-        <v>2859.962020817376</v>
+        <v>2931.654897652316</v>
       </c>
       <c r="Q31" t="n">
         <v>3063.368682157002</v>
@@ -6706,10 +6706,10 @@
         <v>1605.664576032366</v>
       </c>
       <c r="L32" t="n">
-        <v>1766.105744539826</v>
+        <v>1753.610008890694</v>
       </c>
       <c r="M32" t="n">
-        <v>1930.723544627813</v>
+        <v>1918.227808978681</v>
       </c>
       <c r="N32" t="n">
         <v>2098.005032823834</v>
@@ -6718,7 +6718,7 @@
         <v>3236.14386515311</v>
       </c>
       <c r="P32" t="n">
-        <v>4199.268233447327</v>
+        <v>4199.268233447328</v>
       </c>
       <c r="Q32" t="n">
         <v>4847.00708950766</v>
@@ -6776,31 +6776,31 @@
         <v>101.5010349505296</v>
       </c>
       <c r="I33" t="n">
-        <v>118.7713716262171</v>
+        <v>144.8350447866747</v>
       </c>
       <c r="J33" t="n">
-        <v>449.1703138264571</v>
+        <v>516.7844936167066</v>
       </c>
       <c r="K33" t="n">
-        <v>530.1692928568757</v>
+        <v>953.7354533946116</v>
       </c>
       <c r="L33" t="n">
-        <v>639.0824160581381</v>
+        <v>1062.648576595874</v>
       </c>
       <c r="M33" t="n">
-        <v>766.1788937338662</v>
+        <v>1189.745054271602</v>
       </c>
       <c r="N33" t="n">
-        <v>896.6392369862983</v>
+        <v>1320.205397524034</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.984963565409</v>
+        <v>1439.551124103145</v>
       </c>
       <c r="P33" t="n">
-        <v>1111.77043085026</v>
+        <v>1535.336591387996</v>
       </c>
       <c r="Q33" t="n">
-        <v>1716.539417712808</v>
+        <v>1599.366639618469</v>
       </c>
       <c r="R33" t="n">
         <v>1747.68322484415</v>
@@ -6858,25 +6858,25 @@
         <v>101.5010349505296</v>
       </c>
       <c r="J34" t="n">
-        <v>146.1195114073409</v>
+        <v>217.8123882422803</v>
       </c>
       <c r="K34" t="n">
-        <v>469.7362299187925</v>
+        <v>541.4291067537318</v>
       </c>
       <c r="L34" t="n">
-        <v>950.4678682188293</v>
+        <v>1022.160745053769</v>
       </c>
       <c r="M34" t="n">
-        <v>1475.872161465694</v>
+        <v>1547.565038300634</v>
       </c>
       <c r="N34" t="n">
-        <v>1982.48395029684</v>
+        <v>2054.17682713178</v>
       </c>
       <c r="O34" t="n">
-        <v>2461.593597624658</v>
+        <v>2533.286474459598</v>
       </c>
       <c r="P34" t="n">
-        <v>2859.962020817376</v>
+        <v>2931.654897652316</v>
       </c>
       <c r="Q34" t="n">
         <v>3063.368682157002</v>
@@ -6937,52 +6937,52 @@
         <v>110.7331187870245</v>
       </c>
       <c r="J35" t="n">
-        <v>428.1500770343815</v>
+        <v>190.3027443248444</v>
       </c>
       <c r="K35" t="n">
-        <v>547.404319417998</v>
+        <v>309.5569867084609</v>
       </c>
       <c r="L35" t="n">
-        <v>695.3497522763261</v>
+        <v>1237.662496550247</v>
       </c>
       <c r="M35" t="n">
-        <v>859.9675523643124</v>
+        <v>2165.768006392034</v>
       </c>
       <c r="N35" t="n">
-        <v>1788.073062206099</v>
+        <v>3093.873516233821</v>
       </c>
       <c r="O35" t="n">
-        <v>1946.032227965069</v>
+        <v>3454.976095057685</v>
       </c>
       <c r="P35" t="n">
-        <v>2874.137737806856</v>
+        <v>3589.790588518507</v>
       </c>
       <c r="Q35" t="n">
-        <v>3521.876593867186</v>
+        <v>3691.030658620243</v>
       </c>
       <c r="R35" t="n">
         <v>3749.921251886007</v>
       </c>
       <c r="S35" t="n">
-        <v>3749.921251886007</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="T35" t="n">
-        <v>3749.921251886007</v>
+        <v>3472.186583860906</v>
       </c>
       <c r="U35" t="n">
-        <v>3749.921251886007</v>
+        <v>3213.040804448066</v>
       </c>
       <c r="V35" t="n">
-        <v>3749.921251886007</v>
+        <v>3213.040804448066</v>
       </c>
       <c r="W35" t="n">
-        <v>3744.196285520588</v>
+        <v>2808.185349859099</v>
       </c>
       <c r="X35" t="n">
-        <v>3325.053822099899</v>
+        <v>2808.185349859099</v>
       </c>
       <c r="Y35" t="n">
-        <v>2916.767698399552</v>
+        <v>2808.185349859099</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>118.3324348738652</v>
       </c>
       <c r="J36" t="n">
-        <v>305.4949258193082</v>
+        <v>490.2818837038972</v>
       </c>
       <c r="K36" t="n">
-        <v>386.4939048497268</v>
+        <v>571.2808627343159</v>
       </c>
       <c r="L36" t="n">
-        <v>495.4070280509891</v>
+        <v>680.1939859355782</v>
       </c>
       <c r="M36" t="n">
-        <v>622.5035057267172</v>
+        <v>807.2904636113062</v>
       </c>
       <c r="N36" t="n">
-        <v>752.9638489791494</v>
+        <v>1293.702787611225</v>
       </c>
       <c r="O36" t="n">
-        <v>872.30957555826</v>
+        <v>1413.048514190336</v>
       </c>
       <c r="P36" t="n">
-        <v>968.0950428431113</v>
+        <v>1508.833981475187</v>
       </c>
       <c r="Q36" t="n">
         <v>1572.864029705659</v>
@@ -7095,25 +7095,25 @@
         <v>74.99842503772014</v>
       </c>
       <c r="J37" t="n">
-        <v>191.3097783294708</v>
+        <v>119.6169014945314</v>
       </c>
       <c r="K37" t="n">
-        <v>514.9264968409224</v>
+        <v>443.233620005983</v>
       </c>
       <c r="L37" t="n">
-        <v>995.6581351409592</v>
+        <v>923.9652583060198</v>
       </c>
       <c r="M37" t="n">
-        <v>1521.062428387824</v>
+        <v>1449.369551552885</v>
       </c>
       <c r="N37" t="n">
-        <v>2027.674217218969</v>
+        <v>1955.98134038403</v>
       </c>
       <c r="O37" t="n">
-        <v>2506.783864546788</v>
+        <v>2435.090987711849</v>
       </c>
       <c r="P37" t="n">
-        <v>2905.152287739505</v>
+        <v>2833.459410904567</v>
       </c>
       <c r="Q37" t="n">
         <v>3036.866072244192</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2490.468127914644</v>
+        <v>1191.840242186982</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.325655098068</v>
+        <v>1182.641125430807</v>
       </c>
       <c r="D38" t="n">
-        <v>1616.415870272512</v>
+        <v>1182.641125430807</v>
       </c>
       <c r="E38" t="n">
         <v>1182.641125430807</v>
@@ -7177,22 +7177,22 @@
         <v>625.5574317777624</v>
       </c>
       <c r="K38" t="n">
-        <v>1308.228341063763</v>
+        <v>744.8116741613788</v>
       </c>
       <c r="L38" t="n">
-        <v>1456.173773922091</v>
+        <v>1672.917184003166</v>
       </c>
       <c r="M38" t="n">
-        <v>1620.791574010078</v>
+        <v>1837.534984091152</v>
       </c>
       <c r="N38" t="n">
-        <v>1788.073062206099</v>
+        <v>2004.816472287173</v>
       </c>
       <c r="O38" t="n">
-        <v>1946.032227965069</v>
+        <v>2932.92198212896</v>
       </c>
       <c r="P38" t="n">
-        <v>2874.137737806856</v>
+        <v>3067.736475589782</v>
       </c>
       <c r="Q38" t="n">
         <v>3521.876593867186</v>
@@ -7213,13 +7213,13 @@
         <v>2850.423854381892</v>
       </c>
       <c r="W38" t="n">
-        <v>2490.468127914644</v>
+        <v>2445.568399792925</v>
       </c>
       <c r="X38" t="n">
-        <v>2490.468127914644</v>
+        <v>2026.425936372236</v>
       </c>
       <c r="Y38" t="n">
-        <v>2490.468127914644</v>
+        <v>1618.13981267189</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2604.456155193706</v>
+        <v>575.7155182390395</v>
       </c>
       <c r="C39" t="n">
-        <v>2497.999694030348</v>
+        <v>469.2590570756818</v>
       </c>
       <c r="D39" t="n">
-        <v>2402.909405176901</v>
+        <v>374.1687682222351</v>
       </c>
       <c r="E39" t="n">
-        <v>2308.788990503855</v>
+        <v>280.0483535491888</v>
       </c>
       <c r="F39" t="n">
-        <v>2225.405152120017</v>
+        <v>196.6645151653504</v>
       </c>
       <c r="G39" t="n">
-        <v>2140.531856875136</v>
+        <v>111.79121992047</v>
       </c>
       <c r="H39" t="n">
-        <v>2103.739061992386</v>
+        <v>74.99842503772014</v>
       </c>
       <c r="I39" t="n">
-        <v>2147.073071828532</v>
+        <v>118.3324348738652</v>
       </c>
       <c r="J39" t="n">
-        <v>2519.022520658563</v>
+        <v>490.2818837038972</v>
       </c>
       <c r="K39" t="n">
-        <v>2600.021499688982</v>
+        <v>927.2328434818023</v>
       </c>
       <c r="L39" t="n">
-        <v>2708.934622890245</v>
+        <v>1036.145966683065</v>
       </c>
       <c r="M39" t="n">
-        <v>2836.031100565973</v>
+        <v>1163.242444358793</v>
       </c>
       <c r="N39" t="n">
-        <v>2966.491443818405</v>
+        <v>1293.702787611225</v>
       </c>
       <c r="O39" t="n">
-        <v>3085.837170397516</v>
+        <v>1413.048514190336</v>
       </c>
       <c r="P39" t="n">
-        <v>3181.622637682367</v>
+        <v>1508.833981475187</v>
       </c>
       <c r="Q39" t="n">
-        <v>3601.604666660326</v>
+        <v>1572.864029705659</v>
       </c>
       <c r="R39" t="n">
-        <v>3749.921251886007</v>
+        <v>1721.180614931341</v>
       </c>
       <c r="S39" t="n">
-        <v>3695.972172495105</v>
+        <v>1667.231535540439</v>
       </c>
       <c r="T39" t="n">
-        <v>3567.856419770145</v>
+        <v>1539.115782815479</v>
       </c>
       <c r="U39" t="n">
-        <v>3391.553543460175</v>
+        <v>1362.812906505509</v>
       </c>
       <c r="V39" t="n">
-        <v>3192.436025522174</v>
+        <v>1163.695388567508</v>
       </c>
       <c r="W39" t="n">
-        <v>3007.113271255368</v>
+        <v>978.372634300702</v>
       </c>
       <c r="X39" t="n">
-        <v>2852.245835494248</v>
+        <v>823.5051985395819</v>
       </c>
       <c r="Y39" t="n">
-        <v>2725.760056273469</v>
+        <v>697.0194193188026</v>
       </c>
     </row>
     <row r="40">
@@ -7332,13 +7332,13 @@
         <v>74.99842503772014</v>
       </c>
       <c r="J40" t="n">
-        <v>119.6169014945314</v>
+        <v>191.3097783294708</v>
       </c>
       <c r="K40" t="n">
-        <v>443.233620005983</v>
+        <v>514.9264968409224</v>
       </c>
       <c r="L40" t="n">
-        <v>923.9652583060198</v>
+        <v>995.6581351409592</v>
       </c>
       <c r="M40" t="n">
         <v>1449.369551552885</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2490.468127914644</v>
+        <v>1834.019782110699</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.325655098068</v>
+        <v>1395.877309294123</v>
       </c>
       <c r="D41" t="n">
-        <v>1616.415870272512</v>
+        <v>959.9675244685673</v>
       </c>
       <c r="E41" t="n">
-        <v>1182.641125430807</v>
+        <v>959.9675244685673</v>
       </c>
       <c r="F41" t="n">
         <v>754.7736958400151</v>
@@ -7411,25 +7411,25 @@
         <v>110.7331187870245</v>
       </c>
       <c r="J41" t="n">
-        <v>190.3027443248445</v>
+        <v>625.5574317777624</v>
       </c>
       <c r="K41" t="n">
-        <v>1104.370356666064</v>
+        <v>744.8116741613788</v>
       </c>
       <c r="L41" t="n">
-        <v>2032.47586650785</v>
+        <v>892.7571070197071</v>
       </c>
       <c r="M41" t="n">
-        <v>2960.581376349637</v>
+        <v>1057.374907107693</v>
       </c>
       <c r="N41" t="n">
-        <v>3127.862864545658</v>
+        <v>1224.656395303715</v>
       </c>
       <c r="O41" t="n">
-        <v>3285.822030304628</v>
+        <v>1946.032227965069</v>
       </c>
       <c r="P41" t="n">
-        <v>3420.63652376545</v>
+        <v>2874.137737806856</v>
       </c>
       <c r="Q41" t="n">
         <v>3521.876593867186</v>
@@ -7438,25 +7438,25 @@
         <v>3749.921251886007</v>
       </c>
       <c r="S41" t="n">
-        <v>3749.921251886007</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="T41" t="n">
-        <v>3749.921251886007</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="U41" t="n">
-        <v>3749.921251886007</v>
+        <v>3428.920773886875</v>
       </c>
       <c r="V41" t="n">
-        <v>3749.921251886007</v>
+        <v>3066.303823820702</v>
       </c>
       <c r="W41" t="n">
-        <v>3744.196285520588</v>
+        <v>2661.448369231735</v>
       </c>
       <c r="X41" t="n">
-        <v>3325.053822099899</v>
+        <v>2242.305905811046</v>
       </c>
       <c r="Y41" t="n">
-        <v>2916.767698399552</v>
+        <v>1834.019782110699</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2604.456155193706</v>
+        <v>575.7155182390395</v>
       </c>
       <c r="C42" t="n">
-        <v>2497.999694030348</v>
+        <v>469.2590570756818</v>
       </c>
       <c r="D42" t="n">
-        <v>2402.909405176901</v>
+        <v>374.1687682222351</v>
       </c>
       <c r="E42" t="n">
-        <v>2308.788990503855</v>
+        <v>280.0483535491888</v>
       </c>
       <c r="F42" t="n">
-        <v>2225.405152120017</v>
+        <v>196.6645151653504</v>
       </c>
       <c r="G42" t="n">
-        <v>2140.531856875136</v>
+        <v>111.79121992047</v>
       </c>
       <c r="H42" t="n">
-        <v>2103.739061992386</v>
+        <v>74.99842503772014</v>
       </c>
       <c r="I42" t="n">
-        <v>2147.073071828532</v>
+        <v>118.3324348738652</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.235562773974</v>
+        <v>490.2818837038972</v>
       </c>
       <c r="K42" t="n">
-        <v>2415.234541804393</v>
+        <v>927.2328434818023</v>
       </c>
       <c r="L42" t="n">
-        <v>2524.147665005655</v>
+        <v>1036.145966683065</v>
       </c>
       <c r="M42" t="n">
-        <v>2651.244142681384</v>
+        <v>1163.242444358793</v>
       </c>
       <c r="N42" t="n">
-        <v>2781.704485933816</v>
+        <v>1293.702787611225</v>
       </c>
       <c r="O42" t="n">
-        <v>2901.050212512926</v>
+        <v>1413.048514190336</v>
       </c>
       <c r="P42" t="n">
-        <v>2996.835679797778</v>
+        <v>1508.833981475187</v>
       </c>
       <c r="Q42" t="n">
-        <v>3601.604666660326</v>
+        <v>1572.864029705659</v>
       </c>
       <c r="R42" t="n">
-        <v>3749.921251886007</v>
+        <v>1721.180614931341</v>
       </c>
       <c r="S42" t="n">
-        <v>3695.972172495105</v>
+        <v>1667.231535540439</v>
       </c>
       <c r="T42" t="n">
-        <v>3567.856419770145</v>
+        <v>1539.115782815479</v>
       </c>
       <c r="U42" t="n">
-        <v>3391.553543460175</v>
+        <v>1362.812906505509</v>
       </c>
       <c r="V42" t="n">
-        <v>3192.436025522174</v>
+        <v>1163.695388567508</v>
       </c>
       <c r="W42" t="n">
-        <v>3007.113271255368</v>
+        <v>978.372634300702</v>
       </c>
       <c r="X42" t="n">
-        <v>2852.245835494248</v>
+        <v>823.5051985395819</v>
       </c>
       <c r="Y42" t="n">
-        <v>2725.760056273469</v>
+        <v>697.0194193188026</v>
       </c>
     </row>
     <row r="43">
@@ -7578,16 +7578,16 @@
         <v>995.6581351409592</v>
       </c>
       <c r="M43" t="n">
-        <v>1521.062428387824</v>
+        <v>1449.369551552885</v>
       </c>
       <c r="N43" t="n">
-        <v>2027.674217218969</v>
+        <v>1955.98134038403</v>
       </c>
       <c r="O43" t="n">
-        <v>2506.783864546788</v>
+        <v>2435.090987711849</v>
       </c>
       <c r="P43" t="n">
-        <v>2905.152287739506</v>
+        <v>2833.459410904567</v>
       </c>
       <c r="Q43" t="n">
         <v>3036.866072244192</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2077.69285878293</v>
+        <v>2029.482941104804</v>
       </c>
       <c r="C44" t="n">
-        <v>2052.325655098068</v>
+        <v>1591.340468288228</v>
       </c>
       <c r="D44" t="n">
-        <v>1616.415870272512</v>
+        <v>1155.430683462672</v>
       </c>
       <c r="E44" t="n">
-        <v>1182.641125430807</v>
+        <v>721.6559386209674</v>
       </c>
       <c r="F44" t="n">
-        <v>754.7736958400151</v>
+        <v>293.7885090301751</v>
       </c>
       <c r="G44" t="n">
-        <v>354.3324053400697</v>
+        <v>74.99842503772014</v>
       </c>
       <c r="H44" t="n">
         <v>74.99842503772014</v>
@@ -7651,49 +7651,49 @@
         <v>625.5574317777624</v>
       </c>
       <c r="K44" t="n">
-        <v>1553.662941619549</v>
+        <v>744.8116741613788</v>
       </c>
       <c r="L44" t="n">
-        <v>1701.608374477877</v>
+        <v>892.7571070197071</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.226174565863</v>
+        <v>1057.374907107693</v>
       </c>
       <c r="N44" t="n">
-        <v>2033.507662761885</v>
+        <v>1224.656395303715</v>
       </c>
       <c r="O44" t="n">
-        <v>2191.466828520855</v>
+        <v>2115.186292718126</v>
       </c>
       <c r="P44" t="n">
-        <v>2874.137737806856</v>
+        <v>3043.291802559912</v>
       </c>
       <c r="Q44" t="n">
-        <v>3521.876593867186</v>
+        <v>3691.030658620243</v>
       </c>
       <c r="R44" t="n">
         <v>3749.921251886007</v>
       </c>
       <c r="S44" t="n">
-        <v>3749.921251886007</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="T44" t="n">
-        <v>3534.041282447197</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="U44" t="n">
-        <v>3274.895503034358</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="V44" t="n">
-        <v>2912.278552968184</v>
+        <v>3688.066553299715</v>
       </c>
       <c r="W44" t="n">
-        <v>2912.278552968184</v>
+        <v>3283.211098710748</v>
       </c>
       <c r="X44" t="n">
-        <v>2912.278552968184</v>
+        <v>2864.068635290059</v>
       </c>
       <c r="Y44" t="n">
-        <v>2503.992429267837</v>
+        <v>2455.782511589712</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2604.456155193706</v>
+        <v>575.7155182390395</v>
       </c>
       <c r="C45" t="n">
-        <v>2497.999694030348</v>
+        <v>469.2590570756818</v>
       </c>
       <c r="D45" t="n">
-        <v>2402.909405176901</v>
+        <v>374.1687682222351</v>
       </c>
       <c r="E45" t="n">
-        <v>2308.788990503855</v>
+        <v>280.0483535491888</v>
       </c>
       <c r="F45" t="n">
-        <v>2225.405152120017</v>
+        <v>196.6645151653504</v>
       </c>
       <c r="G45" t="n">
-        <v>2140.531856875136</v>
+        <v>111.79121992047</v>
       </c>
       <c r="H45" t="n">
-        <v>2103.739061992386</v>
+        <v>74.99842503772014</v>
       </c>
       <c r="I45" t="n">
-        <v>2121.009398668074</v>
+        <v>118.3324348738652</v>
       </c>
       <c r="J45" t="n">
-        <v>2451.408340868314</v>
+        <v>490.2818837038972</v>
       </c>
       <c r="K45" t="n">
-        <v>2532.407319898733</v>
+        <v>927.2328434818023</v>
       </c>
       <c r="L45" t="n">
-        <v>2641.320443099995</v>
+        <v>1036.145966683065</v>
       </c>
       <c r="M45" t="n">
-        <v>2768.416920775724</v>
+        <v>1163.242444358793</v>
       </c>
       <c r="N45" t="n">
-        <v>2898.877264028155</v>
+        <v>1293.702787611225</v>
       </c>
       <c r="O45" t="n">
-        <v>3018.222990607266</v>
+        <v>1413.048514190336</v>
       </c>
       <c r="P45" t="n">
-        <v>3114.008457892117</v>
+        <v>1508.833981475187</v>
       </c>
       <c r="Q45" t="n">
-        <v>3718.777444754665</v>
+        <v>1572.864029705659</v>
       </c>
       <c r="R45" t="n">
-        <v>3749.921251886007</v>
+        <v>1721.180614931341</v>
       </c>
       <c r="S45" t="n">
-        <v>3695.972172495105</v>
+        <v>1667.231535540439</v>
       </c>
       <c r="T45" t="n">
-        <v>3567.856419770145</v>
+        <v>1539.115782815479</v>
       </c>
       <c r="U45" t="n">
-        <v>3391.553543460175</v>
+        <v>1362.812906505509</v>
       </c>
       <c r="V45" t="n">
-        <v>3192.436025522174</v>
+        <v>1163.695388567508</v>
       </c>
       <c r="W45" t="n">
-        <v>3007.113271255368</v>
+        <v>978.372634300702</v>
       </c>
       <c r="X45" t="n">
-        <v>2852.245835494248</v>
+        <v>823.5051985395819</v>
       </c>
       <c r="Y45" t="n">
-        <v>2725.760056273469</v>
+        <v>697.0194193188026</v>
       </c>
     </row>
     <row r="46">
@@ -7981,25 +7981,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,19 +8142,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8218,19 +8218,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8294,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8534,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>63.58379025273803</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>623.8003569328163</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>15.03718013106095</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>350.0171767000222</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645587</v>
@@ -8929,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>635.1196507397008</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>15.03439334265749</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>30.75181867316815</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>619.4022254091901</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>359.5474553004913</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9090,7 +9090,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>350.0171767000218</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645587</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413404</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>635.1196507397008</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>15.03439334265749</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>30.75181867316815</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>619.4022254091901</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>359.5474553004913</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>635.1196507397008</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>15.03439334265749</v>
       </c>
       <c r="P20" t="n">
-        <v>454.6855927900494</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9479,10 +9479,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>141.1831990723468</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.03718013106097</v>
+        <v>15.03718013106095</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>652.3354685491671</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1102.482330732139</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1099.791736683619</v>
+        <v>12.62195520114346</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>359.5474553004919</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>15.03718013106104</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.47464447413404</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>12.62195520114369</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>203.0306380632192</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9956,25 +9956,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>359.5474553004913</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>15.03718013106104</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413404</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>141.1831990723466</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10272,7 +10272,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>205.1167451880769</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413404</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>12.62195520114324</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>12.62195520114346</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>285.8664831681014</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>359.5474553004913</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>15.03718013106104</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>97.47464447413404</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>240.2498310197343</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>788.0404818014731</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>771.1997068220203</v>
       </c>
       <c r="N35" t="n">
         <v>768.5091127735004</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>205.1953667322168</v>
       </c>
       <c r="P35" t="n">
-        <v>801.3040569504694</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>141.1831990723468</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>359.5474553004915</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>15.03718013106102</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.47464447413449</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>569.1077443458429</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>788.0404818014733</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>777.9256000836535</v>
       </c>
       <c r="P38" t="n">
-        <v>801.3040569504694</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>356.4646951269378</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.5474553004915</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>15.03718013106101</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -10989,7 +10989,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>802.8417878359626</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>788.0404818014733</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>771.1997068220203</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>569.1077443458428</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>801.3040569504694</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>141.1831990723467</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11226,7 +11226,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>391.708071056539</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.47464447413392</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>817.02148228098</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>739.970436015597</v>
       </c>
       <c r="P44" t="n">
-        <v>553.3903190153324</v>
+        <v>801.3040569504697</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>285.8664831681017</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>359.5474553004914</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>364.8889522554324</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H11" t="n">
         <v>276.5406404993261</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>247.517743493794</v>
       </c>
     </row>
     <row r="12">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.88303062909381</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>114.8750762607098</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4368775949458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>276.5406404993261</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>213.7211697444214</v>
       </c>
       <c r="U14" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>390.7621225989719</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4368775949458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>276.5406404993261</v>
@@ -23794,10 +23794,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>27.27939304935984</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>352.3863005761264</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>349.5684586428207</v>
+        <v>396.4368775949458</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>107.4965250550486</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.7211697444214</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>395.1391833413124</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.6539224997981</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>44.45073084050193</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>220.4468649526177</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>213.7211697444214</v>
       </c>
       <c r="U41" t="n">
-        <v>256.5543216187114</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>395.1391833413124</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>408.6475164403975</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>179.8346944424154</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>276.5406404993261</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>61.23615160042885</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.7211697444214</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5543216187114</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>479105.7611526518</v>
+        <v>479105.7611526517</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>479105.7611526517</v>
+        <v>479105.7611526518</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>555221.1280079088</v>
+        <v>555221.1280079089</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>555221.1280079088</v>
+        <v>555221.1280079089</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>555221.1280079089</v>
+        <v>555221.1280079088</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315054</v>
       </c>
       <c r="E2" t="n">
         <v>236011.6547543952</v>
@@ -26337,7 +26337,7 @@
         <v>335092.0749315053</v>
       </c>
       <c r="J2" t="n">
-        <v>335092.0749315054</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="K2" t="n">
         <v>335092.0749315053</v>
@@ -26346,16 +26346,16 @@
         <v>335092.0749315053</v>
       </c>
       <c r="M2" t="n">
-        <v>271131.4049897036</v>
+        <v>271131.4049897037</v>
       </c>
       <c r="N2" t="n">
         <v>271131.4049897037</v>
       </c>
       <c r="O2" t="n">
-        <v>271131.4049897037</v>
+        <v>271131.4049897038</v>
       </c>
       <c r="P2" t="n">
-        <v>271131.4049897036</v>
+        <v>271131.4049897038</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="C4" t="n">
         <v>224357.4126279203</v>
@@ -26426,22 +26426,22 @@
         <v>224357.4126279203</v>
       </c>
       <c r="E4" t="n">
-        <v>54855.46079641045</v>
+        <v>54855.46079641044</v>
       </c>
       <c r="F4" t="n">
         <v>54855.46079641044</v>
       </c>
       <c r="G4" t="n">
+        <v>54855.46079641045</v>
+      </c>
+      <c r="H4" t="n">
         <v>54855.46079641044</v>
       </c>
-      <c r="H4" t="n">
-        <v>54855.46079641045</v>
-      </c>
       <c r="I4" t="n">
-        <v>91491.25742143315</v>
+        <v>91491.25742143314</v>
       </c>
       <c r="J4" t="n">
-        <v>91491.25742143315</v>
+        <v>91491.25742143314</v>
       </c>
       <c r="K4" t="n">
         <v>91491.25742143314</v>
@@ -26450,10 +26450,10 @@
         <v>91491.25742143314</v>
       </c>
       <c r="M4" t="n">
-        <v>67841.27600432372</v>
+        <v>67841.27600432371</v>
       </c>
       <c r="N4" t="n">
-        <v>67841.27600432372</v>
+        <v>67841.27600432371</v>
       </c>
       <c r="O4" t="n">
         <v>67841.27600432371</v>
@@ -26521,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90881.42649334733</v>
+        <v>-90881.42649334736</v>
       </c>
       <c r="C6" t="n">
-        <v>51309.87416636252</v>
+        <v>51309.87416636264</v>
       </c>
       <c r="D6" t="n">
-        <v>51309.87416636258</v>
+        <v>51309.87416636275</v>
       </c>
       <c r="E6" t="n">
-        <v>-158081.6215331157</v>
+        <v>-158477.9432138242</v>
       </c>
       <c r="F6" t="n">
-        <v>130081.8110678059</v>
+        <v>129685.4893870974</v>
       </c>
       <c r="G6" t="n">
-        <v>130081.8110678059</v>
+        <v>129685.4893870975</v>
       </c>
       <c r="H6" t="n">
-        <v>130081.8110678059</v>
+        <v>129685.4893870975</v>
       </c>
       <c r="I6" t="n">
-        <v>24858.29615035724</v>
+        <v>24858.29615035726</v>
       </c>
       <c r="J6" t="n">
-        <v>50310.35438345821</v>
+        <v>50310.35438345809</v>
       </c>
       <c r="K6" t="n">
         <v>161324.8197284483</v>
@@ -26554,16 +26554,16 @@
         <v>161324.8197284483</v>
       </c>
       <c r="M6" t="n">
-        <v>141156.1147374912</v>
+        <v>140900.2720577242</v>
       </c>
       <c r="N6" t="n">
-        <v>141156.1147374913</v>
+        <v>140900.2720577242</v>
       </c>
       <c r="O6" t="n">
-        <v>141156.1147374913</v>
+        <v>140900.2720577242</v>
       </c>
       <c r="P6" t="n">
-        <v>141156.1147374913</v>
+        <v>140900.2720577242</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="F3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="G3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="H3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="I3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="J3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="L3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="M3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="N3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="O3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="P3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>235.5601476707037</v>
+        <v>235.5601476707036</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>329.7613816636197</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>98.71578369541305</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>103.2940869014917</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>153.6112699849888</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27678,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>113.7278999628232</v>
+        <v>2.426462045268977</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>112.824189457354</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27794,7 +27794,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.8241876663075</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,7 +27864,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>104.675330873648</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>207.3804994139243</v>
       </c>
     </row>
     <row r="11">
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H11" t="n">
         <v>9.698212511889819</v>
@@ -31761,7 +31761,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J11" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K11" t="n">
         <v>120.4588306905217</v>
@@ -31770,7 +31770,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M11" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N11" t="n">
         <v>168.9712001980013</v>
@@ -31779,16 +31779,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P11" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q11" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R11" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S11" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T11" t="n">
         <v>4.145385111270372</v>
@@ -31834,7 +31834,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H12" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I12" t="n">
         <v>17.44478452089645</v>
@@ -31843,7 +31843,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K12" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L12" t="n">
         <v>110.0132557588508</v>
@@ -31858,22 +31858,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P12" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R12" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S12" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T12" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31922,7 +31922,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K13" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L13" t="n">
         <v>63.15328942633914</v>
@@ -31931,25 +31931,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N13" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O13" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P13" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q13" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R13" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S13" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T13" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U13" t="n">
         <v>0.02316985059056104</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H14" t="n">
         <v>9.698212511889819</v>
@@ -31998,7 +31998,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J14" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K14" t="n">
         <v>120.4588306905217</v>
@@ -32007,7 +32007,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M14" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N14" t="n">
         <v>168.9712001980013</v>
@@ -32016,16 +32016,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P14" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q14" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R14" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S14" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T14" t="n">
         <v>4.145385111270372</v>
@@ -32071,7 +32071,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H15" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I15" t="n">
         <v>17.44478452089645</v>
@@ -32080,7 +32080,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K15" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L15" t="n">
         <v>110.0132557588508</v>
@@ -32095,22 +32095,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P15" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R15" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S15" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T15" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32159,7 +32159,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K16" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L16" t="n">
         <v>63.15328942633914</v>
@@ -32168,25 +32168,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N16" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O16" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P16" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q16" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R16" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S16" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T16" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U16" t="n">
         <v>0.02316985059056104</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H17" t="n">
         <v>9.698212511889819</v>
@@ -32235,7 +32235,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J17" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K17" t="n">
         <v>120.4588306905217</v>
@@ -32244,7 +32244,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M17" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N17" t="n">
         <v>168.9712001980013</v>
@@ -32253,16 +32253,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P17" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q17" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R17" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S17" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T17" t="n">
         <v>4.145385111270372</v>
@@ -32308,7 +32308,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H18" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I18" t="n">
         <v>17.44478452089645</v>
@@ -32317,7 +32317,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K18" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L18" t="n">
         <v>110.0132557588508</v>
@@ -32332,22 +32332,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P18" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R18" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S18" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T18" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32396,7 +32396,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K19" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L19" t="n">
         <v>63.15328942633914</v>
@@ -32405,25 +32405,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N19" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O19" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P19" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q19" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R19" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S19" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T19" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U19" t="n">
         <v>0.02316985059056104</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H20" t="n">
         <v>9.698212511889819</v>
@@ -32472,7 +32472,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J20" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K20" t="n">
         <v>120.4588306905217</v>
@@ -32481,7 +32481,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M20" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N20" t="n">
         <v>168.9712001980013</v>
@@ -32490,16 +32490,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P20" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q20" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R20" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S20" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T20" t="n">
         <v>4.145385111270372</v>
@@ -32545,7 +32545,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H21" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I21" t="n">
         <v>17.44478452089645</v>
@@ -32554,7 +32554,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K21" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L21" t="n">
         <v>110.0132557588508</v>
@@ -32569,22 +32569,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P21" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R21" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S21" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T21" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32633,7 +32633,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K22" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L22" t="n">
         <v>63.15328942633914</v>
@@ -32642,25 +32642,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N22" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O22" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P22" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q22" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R22" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S22" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T22" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U22" t="n">
         <v>0.02316985059056104</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H23" t="n">
         <v>9.698212511889819</v>
@@ -32709,7 +32709,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J23" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K23" t="n">
         <v>120.4588306905217</v>
@@ -32718,7 +32718,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M23" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N23" t="n">
         <v>168.9712001980013</v>
@@ -32727,16 +32727,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P23" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q23" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R23" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S23" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T23" t="n">
         <v>4.145385111270372</v>
@@ -32782,7 +32782,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H24" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I24" t="n">
         <v>17.44478452089645</v>
@@ -32791,7 +32791,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K24" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L24" t="n">
         <v>110.0132557588508</v>
@@ -32806,22 +32806,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P24" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R24" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S24" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T24" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,7 +32870,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K25" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L25" t="n">
         <v>63.15328942633914</v>
@@ -32879,25 +32879,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N25" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O25" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P25" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q25" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R25" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S25" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T25" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U25" t="n">
         <v>0.02316985059056104</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H26" t="n">
         <v>9.698212511889819</v>
@@ -32946,7 +32946,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J26" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K26" t="n">
         <v>120.4588306905217</v>
@@ -32955,7 +32955,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M26" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N26" t="n">
         <v>168.9712001980013</v>
@@ -32964,16 +32964,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P26" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q26" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R26" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S26" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T26" t="n">
         <v>4.145385111270372</v>
@@ -33019,7 +33019,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H27" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I27" t="n">
         <v>17.44478452089645</v>
@@ -33028,7 +33028,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K27" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L27" t="n">
         <v>110.0132557588508</v>
@@ -33043,22 +33043,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P27" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R27" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S27" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T27" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33107,7 +33107,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K28" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L28" t="n">
         <v>63.15328942633914</v>
@@ -33116,25 +33116,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N28" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O28" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P28" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q28" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R28" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S28" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T28" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U28" t="n">
         <v>0.02316985059056104</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H29" t="n">
         <v>9.698212511889819</v>
@@ -33183,7 +33183,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J29" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K29" t="n">
         <v>120.4588306905217</v>
@@ -33192,7 +33192,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M29" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N29" t="n">
         <v>168.9712001980013</v>
@@ -33201,16 +33201,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P29" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q29" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R29" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S29" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T29" t="n">
         <v>4.145385111270372</v>
@@ -33256,7 +33256,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H30" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I30" t="n">
         <v>17.44478452089645</v>
@@ -33265,7 +33265,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K30" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L30" t="n">
         <v>110.0132557588508</v>
@@ -33280,22 +33280,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P30" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R30" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S30" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T30" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33344,7 +33344,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K31" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L31" t="n">
         <v>63.15328942633914</v>
@@ -33353,25 +33353,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N31" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O31" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P31" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q31" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R31" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S31" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T31" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U31" t="n">
         <v>0.02316985059056104</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H32" t="n">
         <v>9.698212511889819</v>
@@ -33420,7 +33420,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J32" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K32" t="n">
         <v>120.4588306905217</v>
@@ -33429,7 +33429,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M32" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N32" t="n">
         <v>168.9712001980013</v>
@@ -33438,16 +33438,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P32" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q32" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R32" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S32" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T32" t="n">
         <v>4.145385111270372</v>
@@ -33493,7 +33493,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H33" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I33" t="n">
         <v>17.44478452089645</v>
@@ -33502,7 +33502,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K33" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L33" t="n">
         <v>110.0132557588508</v>
@@ -33517,22 +33517,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P33" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R33" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S33" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T33" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33581,7 +33581,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K34" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L34" t="n">
         <v>63.15328942633914</v>
@@ -33590,25 +33590,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N34" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O34" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P34" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q34" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R34" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S34" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T34" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U34" t="n">
         <v>0.02316985059056104</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H35" t="n">
         <v>9.698212511889819</v>
@@ -33657,7 +33657,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J35" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K35" t="n">
         <v>120.4588306905217</v>
@@ -33666,7 +33666,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M35" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N35" t="n">
         <v>168.9712001980013</v>
@@ -33675,16 +33675,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P35" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q35" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R35" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S35" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T35" t="n">
         <v>4.145385111270372</v>
@@ -33730,7 +33730,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H36" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I36" t="n">
         <v>17.44478452089645</v>
@@ -33739,7 +33739,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K36" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L36" t="n">
         <v>110.0132557588508</v>
@@ -33754,22 +33754,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P36" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R36" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S36" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T36" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33818,7 +33818,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K37" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L37" t="n">
         <v>63.15328942633914</v>
@@ -33827,25 +33827,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N37" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O37" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P37" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q37" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R37" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S37" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T37" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U37" t="n">
         <v>0.02316985059056104</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H38" t="n">
         <v>9.698212511889819</v>
@@ -33894,7 +33894,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J38" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K38" t="n">
         <v>120.4588306905217</v>
@@ -33903,7 +33903,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M38" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N38" t="n">
         <v>168.9712001980013</v>
@@ -33912,16 +33912,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P38" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q38" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R38" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S38" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T38" t="n">
         <v>4.145385111270372</v>
@@ -33967,7 +33967,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H39" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I39" t="n">
         <v>17.44478452089645</v>
@@ -33976,7 +33976,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K39" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L39" t="n">
         <v>110.0132557588508</v>
@@ -33991,22 +33991,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P39" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R39" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S39" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T39" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34055,7 +34055,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K40" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L40" t="n">
         <v>63.15328942633914</v>
@@ -34064,25 +34064,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N40" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O40" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P40" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q40" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R40" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S40" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T40" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U40" t="n">
         <v>0.02316985059056104</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H41" t="n">
         <v>9.698212511889819</v>
@@ -34131,7 +34131,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J41" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K41" t="n">
         <v>120.4588306905217</v>
@@ -34140,7 +34140,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M41" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N41" t="n">
         <v>168.9712001980013</v>
@@ -34149,16 +34149,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P41" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q41" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R41" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S41" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T41" t="n">
         <v>4.145385111270372</v>
@@ -34204,7 +34204,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H42" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I42" t="n">
         <v>17.44478452089645</v>
@@ -34213,7 +34213,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K42" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L42" t="n">
         <v>110.0132557588508</v>
@@ -34228,22 +34228,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P42" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R42" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S42" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T42" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34292,7 +34292,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K43" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L43" t="n">
         <v>63.15328942633914</v>
@@ -34301,25 +34301,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N43" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O43" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P43" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q43" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R43" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S43" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T43" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U43" t="n">
         <v>0.02316985059056104</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9469754680229285</v>
+        <v>0.9469754680229284</v>
       </c>
       <c r="H44" t="n">
         <v>9.698212511889819</v>
@@ -34368,7 +34368,7 @@
         <v>36.50827173095399</v>
       </c>
       <c r="J44" t="n">
-        <v>80.37335912911111</v>
+        <v>80.37335912911109</v>
       </c>
       <c r="K44" t="n">
         <v>120.4588306905217</v>
@@ -34377,7 +34377,7 @@
         <v>149.4398311700284</v>
       </c>
       <c r="M44" t="n">
-        <v>166.2806061494812</v>
+        <v>166.2806061494811</v>
       </c>
       <c r="N44" t="n">
         <v>168.9712001980013</v>
@@ -34386,16 +34386,16 @@
         <v>159.5547128878483</v>
       </c>
       <c r="P44" t="n">
-        <v>136.1762560210323</v>
+        <v>136.1762560210322</v>
       </c>
       <c r="Q44" t="n">
         <v>102.2626970724611</v>
       </c>
       <c r="R44" t="n">
-        <v>59.48544774319534</v>
+        <v>59.48544774319533</v>
       </c>
       <c r="S44" t="n">
-        <v>21.57920347757251</v>
+        <v>21.5792034775725</v>
       </c>
       <c r="T44" t="n">
         <v>4.145385111270372</v>
@@ -34441,7 +34441,7 @@
         <v>0.5066765440464192</v>
       </c>
       <c r="H45" t="n">
-        <v>4.89342872802726</v>
+        <v>4.893428728027259</v>
       </c>
       <c r="I45" t="n">
         <v>17.44478452089645</v>
@@ -34450,7 +34450,7 @@
         <v>47.8698220846663</v>
       </c>
       <c r="K45" t="n">
-        <v>81.81715053577639</v>
+        <v>81.81715053577638</v>
       </c>
       <c r="L45" t="n">
         <v>110.0132557588508</v>
@@ -34465,22 +34465,22 @@
         <v>120.5512389687987</v>
       </c>
       <c r="P45" t="n">
-        <v>96.75299725742545</v>
+        <v>96.75299725742543</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.6768163944166</v>
+        <v>64.67681639441659</v>
       </c>
       <c r="R45" t="n">
-        <v>31.45839104175927</v>
+        <v>31.45839104175926</v>
       </c>
       <c r="S45" t="n">
-        <v>9.411294579107825</v>
+        <v>9.411294579107823</v>
       </c>
       <c r="T45" t="n">
-        <v>2.042262034994119</v>
+        <v>2.042262034994118</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03333398316094865</v>
+        <v>0.03333398316094864</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34529,7 +34529,7 @@
         <v>30.03198800713216</v>
       </c>
       <c r="K46" t="n">
-        <v>49.35178175789495</v>
+        <v>49.35178175789494</v>
       </c>
       <c r="L46" t="n">
         <v>63.15328942633914</v>
@@ -34538,25 +34538,25 @@
         <v>66.58628895550724</v>
       </c>
       <c r="N46" t="n">
-        <v>65.00301583181897</v>
+        <v>65.00301583181896</v>
       </c>
       <c r="O46" t="n">
         <v>60.04080616367379</v>
       </c>
       <c r="P46" t="n">
-        <v>51.37528204280393</v>
+        <v>51.37528204280392</v>
       </c>
       <c r="Q46" t="n">
         <v>35.56958229827625</v>
       </c>
       <c r="R46" t="n">
-        <v>19.09968017015246</v>
+        <v>19.09968017015245</v>
       </c>
       <c r="S46" t="n">
         <v>7.402767263684241</v>
       </c>
       <c r="T46" t="n">
-        <v>1.814971629593946</v>
+        <v>1.814971629593945</v>
       </c>
       <c r="U46" t="n">
         <v>0.02316985059056104</v>
@@ -34701,25 +34701,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,19 +34862,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34938,19 +34938,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35014,28 +35014,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35254,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>43.77172710721726</v>
       </c>
       <c r="J12" t="n">
-        <v>47.86982208466631</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K12" t="n">
-        <v>81.81715053577639</v>
+        <v>441.3646058362677</v>
       </c>
       <c r="L12" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M12" t="n">
-        <v>191.9640707332715</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N12" t="n">
-        <v>755.5784814302225</v>
+        <v>131.7781244974062</v>
       </c>
       <c r="O12" t="n">
         <v>120.5512389687988</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>117.4862154462128</v>
+        <v>45.06916813819311</v>
       </c>
       <c r="K13" t="n">
         <v>326.8855742539915</v>
       </c>
       <c r="L13" t="n">
-        <v>413.1704661263614</v>
+        <v>485.5875134343806</v>
       </c>
       <c r="M13" t="n">
         <v>530.7114073200659</v>
       </c>
       <c r="N13" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O13" t="n">
-        <v>483.9491387149681</v>
+        <v>483.9491387149683</v>
       </c>
       <c r="P13" t="n">
         <v>402.392346659311</v>
@@ -35649,10 +35649,10 @@
         <v>520.024558576503</v>
       </c>
       <c r="K14" t="n">
-        <v>755.5784814302225</v>
+        <v>120.4588306905217</v>
       </c>
       <c r="L14" t="n">
-        <v>164.4742245126859</v>
+        <v>149.4398311700284</v>
       </c>
       <c r="M14" t="n">
         <v>166.2806061494812</v>
@@ -35661,10 +35661,10 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O14" t="n">
-        <v>159.5547128878484</v>
+        <v>190.3065315610165</v>
       </c>
       <c r="P14" t="n">
-        <v>136.1762560210323</v>
+        <v>755.5784814302224</v>
       </c>
       <c r="Q14" t="n">
         <v>654.2816727882132</v>
@@ -35728,13 +35728,13 @@
         <v>375.7065139697293</v>
       </c>
       <c r="K15" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362677</v>
       </c>
       <c r="L15" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M15" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N15" t="n">
         <v>131.7781244974062</v>
@@ -35746,7 +35746,7 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q15" t="n">
-        <v>424.2242716949079</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R15" t="n">
         <v>149.8147325511934</v>
@@ -35810,10 +35810,10 @@
         <v>326.8855742539915</v>
       </c>
       <c r="L16" t="n">
-        <v>413.1704661263609</v>
+        <v>485.5875134343806</v>
       </c>
       <c r="M16" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N16" t="n">
         <v>511.7290796274197</v>
@@ -35825,7 +35825,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724102</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>520.024558576503</v>
       </c>
       <c r="K17" t="n">
-        <v>120.4588306905217</v>
+        <v>755.5784814302225</v>
       </c>
       <c r="L17" t="n">
-        <v>149.4398311700284</v>
+        <v>164.4742245126859</v>
       </c>
       <c r="M17" t="n">
         <v>166.2806061494812</v>
@@ -35898,10 +35898,10 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O17" t="n">
-        <v>190.3065315610165</v>
+        <v>159.5547128878484</v>
       </c>
       <c r="P17" t="n">
-        <v>755.5784814302224</v>
+        <v>136.1762560210323</v>
       </c>
       <c r="Q17" t="n">
         <v>654.2816727882132</v>
@@ -35965,13 +35965,13 @@
         <v>375.7065139697293</v>
       </c>
       <c r="K18" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362677</v>
       </c>
       <c r="L18" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M18" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N18" t="n">
         <v>131.7781244974062</v>
@@ -35983,7 +35983,7 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q18" t="n">
-        <v>424.2242716949079</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R18" t="n">
         <v>149.8147325511934</v>
@@ -36120,10 +36120,10 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J20" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K20" t="n">
-        <v>755.5784814302224</v>
+        <v>755.5784814302225</v>
       </c>
       <c r="L20" t="n">
         <v>149.4398311700284</v>
@@ -36135,10 +36135,10 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O20" t="n">
-        <v>159.5547128878484</v>
+        <v>174.5891062305059</v>
       </c>
       <c r="P20" t="n">
-        <v>590.8618488110817</v>
+        <v>136.1762560210323</v>
       </c>
       <c r="Q20" t="n">
         <v>654.2816727882132</v>
@@ -36199,28 +36199,28 @@
         <v>43.77172710721726</v>
       </c>
       <c r="J21" t="n">
-        <v>189.0530211570131</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K21" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362677</v>
       </c>
       <c r="L21" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M21" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N21" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O21" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P21" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q21" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R21" t="n">
         <v>149.8147325511934</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.06916813819313</v>
+        <v>45.06916813819311</v>
       </c>
       <c r="K22" t="n">
         <v>326.8855742539915</v>
@@ -36290,13 +36290,13 @@
         <v>530.7114073200659</v>
       </c>
       <c r="N22" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O22" t="n">
-        <v>483.9491387149681</v>
+        <v>483.9491387149683</v>
       </c>
       <c r="P22" t="n">
-        <v>402.392346659311</v>
+        <v>402.3923466593105</v>
       </c>
       <c r="Q22" t="n">
         <v>205.46127408043</v>
@@ -36357,31 +36357,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J23" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K23" t="n">
-        <v>120.4588306905217</v>
+        <v>963.2369033755499</v>
       </c>
       <c r="L23" t="n">
-        <v>801.7752997191955</v>
+        <v>149.4398311700284</v>
       </c>
       <c r="M23" t="n">
-        <v>1268.76293688162</v>
+        <v>166.2806061494812</v>
       </c>
       <c r="N23" t="n">
-        <v>1268.76293688162</v>
+        <v>181.593155399145</v>
       </c>
       <c r="O23" t="n">
         <v>1149.635184170986</v>
       </c>
       <c r="P23" t="n">
-        <v>136.1762560210318</v>
+        <v>972.8528972668873</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.2626970724614</v>
+        <v>654.2816727882127</v>
       </c>
       <c r="R23" t="n">
-        <v>59.48544774319544</v>
+        <v>230.3481394129494</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>43.77172710721743</v>
+        <v>43.77172710721725</v>
       </c>
       <c r="J24" t="n">
         <v>375.7065139697293</v>
       </c>
       <c r="K24" t="n">
-        <v>441.3646058362683</v>
+        <v>81.81715053577636</v>
       </c>
       <c r="L24" t="n">
-        <v>110.0132557588504</v>
+        <v>110.0132557588508</v>
       </c>
       <c r="M24" t="n">
-        <v>128.3802804805337</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N24" t="n">
-        <v>131.7781244974058</v>
+        <v>131.7781244974062</v>
       </c>
       <c r="O24" t="n">
-        <v>120.5512389687983</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P24" t="n">
-        <v>96.7529972574257</v>
+        <v>96.75299725742548</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.67681639441616</v>
+        <v>424.2242716949079</v>
       </c>
       <c r="R24" t="n">
-        <v>149.8147325511936</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>117.4862154462128</v>
+        <v>45.06916813819321</v>
       </c>
       <c r="K25" t="n">
         <v>326.8855742539915</v>
       </c>
       <c r="L25" t="n">
-        <v>485.5875134343808</v>
+        <v>485.5875134343806</v>
       </c>
       <c r="M25" t="n">
-        <v>530.711407320066</v>
+        <v>530.7114073200659</v>
       </c>
       <c r="N25" t="n">
         <v>511.7290796274197</v>
@@ -36536,7 +36536,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.0442267724102</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J26" t="n">
-        <v>80.37335912911109</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K26" t="n">
         <v>963.2369033755499</v>
       </c>
       <c r="L26" t="n">
-        <v>1235.3589890012</v>
+        <v>162.061786371172</v>
       </c>
       <c r="M26" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N26" t="n">
-        <v>168.9712001980015</v>
+        <v>168.9712001980013</v>
       </c>
       <c r="O26" t="n">
         <v>1149.635184170986</v>
       </c>
       <c r="P26" t="n">
-        <v>339.2068940842514</v>
+        <v>972.8528972668873</v>
       </c>
       <c r="Q26" t="n">
         <v>654.2816727882127</v>
@@ -36676,7 +36676,7 @@
         <v>375.7065139697293</v>
       </c>
       <c r="K27" t="n">
-        <v>441.3646058362676</v>
+        <v>81.81715053577636</v>
       </c>
       <c r="L27" t="n">
         <v>110.0132557588508</v>
@@ -36694,7 +36694,7 @@
         <v>96.75299725742548</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.67681639441662</v>
+        <v>424.2242716949079</v>
       </c>
       <c r="R27" t="n">
         <v>149.8147325511934</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.06916813819321</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K28" t="n">
         <v>326.8855742539915</v>
       </c>
       <c r="L28" t="n">
-        <v>485.5875134343806</v>
+        <v>485.5875134343808</v>
       </c>
       <c r="M28" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N28" t="n">
         <v>511.7290796274197</v>
@@ -36773,7 +36773,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724102</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>43.77172710721727</v>
+        <v>43.77172710721725</v>
       </c>
       <c r="J30" t="n">
-        <v>189.0530211570129</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K30" t="n">
         <v>81.81715053577636</v>
@@ -36919,19 +36919,19 @@
         <v>110.0132557588508</v>
       </c>
       <c r="M30" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N30" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O30" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P30" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q30" t="n">
-        <v>610.8777645076243</v>
+        <v>424.2242716949079</v>
       </c>
       <c r="R30" t="n">
         <v>149.8147325511934</v>
@@ -36992,13 +36992,13 @@
         <v>117.4862154462128</v>
       </c>
       <c r="K31" t="n">
-        <v>254.4685269459719</v>
+        <v>326.8855742539915</v>
       </c>
       <c r="L31" t="n">
-        <v>485.5875134343806</v>
+        <v>485.5875134343808</v>
       </c>
       <c r="M31" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N31" t="n">
         <v>511.7290796274197</v>
@@ -37010,7 +37010,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724102</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>963.2369033755499</v>
       </c>
       <c r="L32" t="n">
-        <v>162.0617863711716</v>
+        <v>149.4398311700284</v>
       </c>
       <c r="M32" t="n">
         <v>166.2806061494812</v>
       </c>
       <c r="N32" t="n">
-        <v>168.9712001980013</v>
+        <v>181.593155399145</v>
       </c>
       <c r="O32" t="n">
         <v>1149.635184170986</v>
       </c>
       <c r="P32" t="n">
-        <v>972.8528972668869</v>
+        <v>972.8528972668873</v>
       </c>
       <c r="Q32" t="n">
-        <v>654.2816727882137</v>
+        <v>654.2816727882127</v>
       </c>
       <c r="R32" t="n">
         <v>230.3481394129494</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>17.44478452089645</v>
+        <v>43.77172710721725</v>
       </c>
       <c r="J33" t="n">
-        <v>333.7363052527677</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K33" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362676</v>
       </c>
       <c r="L33" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M33" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N33" t="n">
         <v>131.7781244974062</v>
       </c>
       <c r="O33" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P33" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q33" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R33" t="n">
-        <v>31.45839104175934</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.06916813819321</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K34" t="n">
         <v>326.8855742539915</v>
       </c>
       <c r="L34" t="n">
-        <v>485.5875134343806</v>
+        <v>485.5875134343808</v>
       </c>
       <c r="M34" t="n">
-        <v>530.7114073200659</v>
+        <v>530.711407320066</v>
       </c>
       <c r="N34" t="n">
         <v>511.7290796274197</v>
@@ -37247,7 +37247,7 @@
         <v>402.392346659311</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.46127408043</v>
+        <v>133.0442267724102</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J35" t="n">
-        <v>320.6231901488454</v>
+        <v>80.37335912911108</v>
       </c>
       <c r="K35" t="n">
         <v>120.4588306905217</v>
       </c>
       <c r="L35" t="n">
-        <v>149.4398311700284</v>
+        <v>937.4803129715016</v>
       </c>
       <c r="M35" t="n">
-        <v>166.2806061494812</v>
+        <v>937.4803129715015</v>
       </c>
       <c r="N35" t="n">
-        <v>937.4803129715017</v>
+        <v>937.4803129715019</v>
       </c>
       <c r="O35" t="n">
-        <v>159.5547128878484</v>
+        <v>364.7500796200652</v>
       </c>
       <c r="P35" t="n">
-        <v>937.4803129715017</v>
+        <v>136.1762560210323</v>
       </c>
       <c r="Q35" t="n">
-        <v>654.2816727882132</v>
+        <v>102.2626970724609</v>
       </c>
       <c r="R35" t="n">
-        <v>230.3481394129499</v>
+        <v>59.48544774319544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>43.77172710721726</v>
       </c>
       <c r="J36" t="n">
-        <v>189.0530211570131</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K36" t="n">
-        <v>81.81715053577636</v>
+        <v>81.81715053577642</v>
       </c>
       <c r="L36" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3802804805335</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N36" t="n">
-        <v>131.7781244974062</v>
+        <v>491.3255797978976</v>
       </c>
       <c r="O36" t="n">
-        <v>120.5512389687987</v>
+        <v>120.5512389687988</v>
       </c>
       <c r="P36" t="n">
         <v>96.75299725742548</v>
       </c>
       <c r="Q36" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R36" t="n">
         <v>149.8147325511934</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>117.4862154462128</v>
+        <v>45.06916813819318</v>
       </c>
       <c r="K37" t="n">
         <v>326.8855742539915</v>
@@ -37475,7 +37475,7 @@
         <v>530.7114073200659</v>
       </c>
       <c r="N37" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O37" t="n">
         <v>483.9491387149683</v>
@@ -37484,7 +37484,7 @@
         <v>402.3923466593105</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.0442267724106</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>520.024558576503</v>
       </c>
       <c r="K38" t="n">
-        <v>689.5665750363646</v>
+        <v>120.4588306905217</v>
       </c>
       <c r="L38" t="n">
-        <v>149.4398311700284</v>
+        <v>937.4803129715018</v>
       </c>
       <c r="M38" t="n">
         <v>166.2806061494812</v>
@@ -37557,13 +37557,13 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O38" t="n">
-        <v>159.5547128878484</v>
+        <v>937.4803129715017</v>
       </c>
       <c r="P38" t="n">
-        <v>937.4803129715017</v>
+        <v>136.1762560210323</v>
       </c>
       <c r="Q38" t="n">
-        <v>654.2816727882132</v>
+        <v>458.7273921993988</v>
       </c>
       <c r="R38" t="n">
         <v>230.3481394129499</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.77172710721743</v>
+        <v>43.77172710721726</v>
       </c>
       <c r="J39" t="n">
         <v>375.7065139697293</v>
       </c>
       <c r="K39" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362678</v>
       </c>
       <c r="L39" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M39" t="n">
-        <v>128.3802804805337</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N39" t="n">
         <v>131.7781244974062</v>
@@ -37639,13 +37639,13 @@
         <v>120.5512389687988</v>
       </c>
       <c r="P39" t="n">
-        <v>96.75299725742525</v>
+        <v>96.75299725742548</v>
       </c>
       <c r="Q39" t="n">
-        <v>424.2242716949081</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R39" t="n">
-        <v>149.8147325511932</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.06916813819318</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K40" t="n">
         <v>326.8855742539915</v>
@@ -37709,7 +37709,7 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M40" t="n">
-        <v>530.7114073200659</v>
+        <v>458.2943600120462</v>
       </c>
       <c r="N40" t="n">
         <v>511.7290796274197</v>
@@ -37779,28 +37779,28 @@
         <v>36.09565025182259</v>
       </c>
       <c r="J41" t="n">
-        <v>80.37335912911111</v>
+        <v>520.024558576503</v>
       </c>
       <c r="K41" t="n">
-        <v>923.3006185264843</v>
+        <v>120.4588306905217</v>
       </c>
       <c r="L41" t="n">
+        <v>149.4398311700285</v>
+      </c>
+      <c r="M41" t="n">
+        <v>166.2806061494812</v>
+      </c>
+      <c r="N41" t="n">
+        <v>168.9712001980013</v>
+      </c>
+      <c r="O41" t="n">
+        <v>728.6624572336912</v>
+      </c>
+      <c r="P41" t="n">
         <v>937.4803129715017</v>
       </c>
-      <c r="M41" t="n">
-        <v>937.4803129715015</v>
-      </c>
-      <c r="N41" t="n">
-        <v>168.9712001980015</v>
-      </c>
-      <c r="O41" t="n">
-        <v>159.5547128878484</v>
-      </c>
-      <c r="P41" t="n">
-        <v>136.1762560210323</v>
-      </c>
       <c r="Q41" t="n">
-        <v>102.2626970724609</v>
+        <v>654.2816727882132</v>
       </c>
       <c r="R41" t="n">
         <v>230.3481394129499</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>43.77172710721743</v>
+        <v>43.77172710721726</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0530211570131</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K42" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362678</v>
       </c>
       <c r="L42" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M42" t="n">
-        <v>128.3802804805337</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N42" t="n">
         <v>131.7781244974062</v>
@@ -37876,13 +37876,13 @@
         <v>120.5512389687988</v>
       </c>
       <c r="P42" t="n">
-        <v>96.75299725742525</v>
+        <v>96.75299725742548</v>
       </c>
       <c r="Q42" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R42" t="n">
-        <v>149.8147325511932</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,19 +37946,19 @@
         <v>485.5875134343806</v>
       </c>
       <c r="M43" t="n">
-        <v>530.7114073200659</v>
+        <v>458.2943600120462</v>
       </c>
       <c r="N43" t="n">
-        <v>511.7290796274194</v>
+        <v>511.7290796274197</v>
       </c>
       <c r="O43" t="n">
         <v>483.9491387149683</v>
       </c>
       <c r="P43" t="n">
-        <v>402.392346659311</v>
+        <v>402.3923466593105</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.0442267724102</v>
+        <v>205.46127408043</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>520.024558576503</v>
       </c>
       <c r="K44" t="n">
-        <v>937.4803129715017</v>
+        <v>120.4588306905217</v>
       </c>
       <c r="L44" t="n">
-        <v>149.4398311700284</v>
+        <v>149.4398311700285</v>
       </c>
       <c r="M44" t="n">
         <v>166.2806061494812</v>
@@ -38031,16 +38031,16 @@
         <v>168.9712001980013</v>
       </c>
       <c r="O44" t="n">
-        <v>159.5547128878484</v>
+        <v>899.5251489034454</v>
       </c>
       <c r="P44" t="n">
-        <v>689.5665750363646</v>
+        <v>937.4803129715019</v>
       </c>
       <c r="Q44" t="n">
         <v>654.2816727882132</v>
       </c>
       <c r="R44" t="n">
-        <v>230.3481394129499</v>
+        <v>59.48544774319544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>17.44478452089652</v>
+        <v>43.77172710721726</v>
       </c>
       <c r="J45" t="n">
-        <v>333.736305252768</v>
+        <v>375.7065139697293</v>
       </c>
       <c r="K45" t="n">
-        <v>81.81715053577636</v>
+        <v>441.3646058362678</v>
       </c>
       <c r="L45" t="n">
         <v>110.0132557588508</v>
       </c>
       <c r="M45" t="n">
-        <v>128.3802804805337</v>
+        <v>128.3802804805334</v>
       </c>
       <c r="N45" t="n">
         <v>131.7781244974062</v>
@@ -38113,13 +38113,13 @@
         <v>120.5512389687988</v>
       </c>
       <c r="P45" t="n">
-        <v>96.75299725742525</v>
+        <v>96.75299725742548</v>
       </c>
       <c r="Q45" t="n">
-        <v>610.8777645076243</v>
+        <v>64.67681639441662</v>
       </c>
       <c r="R45" t="n">
-        <v>31.45839104175911</v>
+        <v>149.8147325511934</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>117.4862154462129</v>
+        <v>117.4862154462128</v>
       </c>
       <c r="K46" t="n">
         <v>326.8855742539915</v>
